--- a/data/outputs/OR_altmetric/43.xlsx
+++ b/data/outputs/OR_altmetric/43.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE126"/>
+  <dimension ref="A1:CF126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,11 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>citeulike</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
         </is>
       </c>
     </row>
@@ -943,6 +948,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1104,6 +1112,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1267,6 +1278,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1432,6 +1446,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1593,6 +1610,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1754,6 +1774,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1921,6 +1944,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2087,6 +2113,9 @@
       </c>
       <c r="CE9" t="n">
         <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -2249,6 +2278,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2410,6 +2442,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2579,6 +2614,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2746,6 +2784,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2913,6 +2954,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3082,6 +3126,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3249,6 +3296,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3412,6 +3462,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3578,6 +3631,9 @@
       </c>
       <c r="CE18" t="n">
         <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>6.85</v>
       </c>
     </row>
     <row r="19">
@@ -3740,6 +3796,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3911,6 +3970,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4080,6 +4142,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4249,6 +4314,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4416,6 +4484,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4579,6 +4650,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4742,6 +4816,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4912,6 +4989,9 @@
       </c>
       <c r="CE26" t="n">
         <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -5074,6 +5154,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5243,6 +5326,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5413,6 +5499,9 @@
       </c>
       <c r="CE29" t="n">
         <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="30">
@@ -5595,6 +5684,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5761,6 +5853,9 @@
       </c>
       <c r="CE31" t="n">
         <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="32">
@@ -5925,6 +6020,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6092,6 +6190,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6255,6 +6356,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6425,6 +6529,9 @@
       </c>
       <c r="CE35" t="n">
         <v>0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
@@ -6587,6 +6694,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6754,6 +6864,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6917,6 +7030,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7086,6 +7202,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7255,6 +7374,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7425,6 +7547,9 @@
       </c>
       <c r="CE41" t="n">
         <v>1</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="42">
@@ -7589,6 +7714,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7763,6 +7891,9 @@
       </c>
       <c r="CE43" t="n">
         <v>0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="44">
@@ -7927,6 +8058,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8088,6 +8222,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8258,6 +8395,9 @@
       </c>
       <c r="CE46" t="n">
         <v>0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="47">
@@ -8422,6 +8562,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8587,6 +8730,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8757,6 +8903,9 @@
       </c>
       <c r="CE49" t="n">
         <v>0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="50">
@@ -8919,6 +9068,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9080,6 +9232,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9241,6 +9396,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9407,6 +9565,9 @@
       </c>
       <c r="CE53" t="n">
         <v>1</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="54">
@@ -9571,6 +9732,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>12.02</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9736,6 +9900,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9897,6 +10064,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10058,6 +10228,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10225,6 +10398,9 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10388,6 +10564,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10549,6 +10728,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10736,6 +10918,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10901,6 +11086,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11062,6 +11250,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11225,6 +11416,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11392,6 +11586,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11557,6 +11754,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11728,6 +11928,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11895,6 +12098,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12062,6 +12268,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12225,6 +12434,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12386,6 +12598,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12567,6 +12782,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12750,6 +12968,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12915,6 +13136,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13080,6 +13304,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13241,6 +13468,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13402,6 +13632,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13565,6 +13798,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13733,6 +13969,9 @@
       </c>
       <c r="CE79" t="n">
         <v>0</v>
+      </c>
+      <c r="CF79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -13897,6 +14136,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14060,6 +14302,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14223,6 +14468,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14392,6 +14640,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14559,6 +14810,9 @@
         <v>0</v>
       </c>
       <c r="CE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14722,6 +14976,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14885,6 +15142,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15052,6 +15312,9 @@
       <c r="CE87" t="n">
         <v>1</v>
       </c>
+      <c r="CF87" t="n">
+        <v>86.08799999999999</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15239,6 +15502,9 @@
         <v>0</v>
       </c>
       <c r="CE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15402,6 +15668,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15563,6 +15832,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15724,6 +15996,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15893,6 +16168,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -16060,6 +16338,9 @@
         <v>0</v>
       </c>
       <c r="CE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16243,6 +16524,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -16404,6 +16688,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -16577,6 +16864,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -16740,6 +17030,9 @@
         <v>0</v>
       </c>
       <c r="CE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16905,6 +17198,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -17066,6 +17362,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -17237,6 +17536,9 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17402,6 +17704,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -17563,6 +17868,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -17728,6 +18036,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -17897,6 +18208,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -18088,6 +18402,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -18255,6 +18572,9 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18418,6 +18738,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -18583,6 +18906,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -18748,6 +19074,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -18909,6 +19238,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -19076,6 +19408,9 @@
         <v>0</v>
       </c>
       <c r="CE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19244,6 +19579,9 @@
       </c>
       <c r="CE112" t="n">
         <v>0</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="113">
@@ -19406,6 +19744,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -19577,6 +19918,9 @@
         <v>0</v>
       </c>
       <c r="CE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19742,6 +20086,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -19912,6 +20259,9 @@
       </c>
       <c r="CE116" t="n">
         <v>21</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -20076,6 +20426,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -20239,6 +20592,9 @@
         <v>0</v>
       </c>
       <c r="CE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20398,6 +20754,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -20559,6 +20918,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -20748,6 +21110,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -20913,6 +21278,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -21083,6 +21451,9 @@
       </c>
       <c r="CE123" t="n">
         <v>0</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="124">
@@ -21245,6 +21616,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -21412,6 +21786,9 @@
         <v>0</v>
       </c>
       <c r="CE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21571,6 +21948,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
